--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angus\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98E1691-5B8C-456A-A93A-B59DFDEC03F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152E62F1-8FA9-490D-A019-AC2689B637BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63309,6 +63309,9 @@
       <c r="AR436">
         <v>-4.8332671504729641E-2</v>
       </c>
+      <c r="AZ436">
+        <v>1</v>
+      </c>
       <c r="BB436">
         <v>0</v>
       </c>

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angus\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35740897-F026-471C-B7E3-50CAB8449669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E6B42C-30DE-4B73-945F-A0556EB16202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BB$450</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="2092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4224" uniqueCount="2092">
   <si>
     <t>Name</t>
   </si>
@@ -58978,6 +58981,9 @@
       <c r="E387" t="s">
         <v>1497</v>
       </c>
+      <c r="F387" t="s">
+        <v>1580</v>
+      </c>
       <c r="G387" t="s">
         <v>1616</v>
       </c>
@@ -61116,6 +61122,9 @@
       <c r="E406" t="s">
         <v>1482</v>
       </c>
+      <c r="F406" t="s">
+        <v>1544</v>
+      </c>
       <c r="G406" t="s">
         <v>1616</v>
       </c>
@@ -63289,6 +63298,9 @@
       <c r="E429" t="s">
         <v>1475</v>
       </c>
+      <c r="F429" t="s">
+        <v>1581</v>
+      </c>
       <c r="G429" t="s">
         <v>1608</v>
       </c>
@@ -63372,6 +63384,9 @@
       <c r="E430" t="s">
         <v>1475</v>
       </c>
+      <c r="F430" t="s">
+        <v>1519</v>
+      </c>
       <c r="G430" t="s">
         <v>1608</v>
       </c>
@@ -63538,6 +63553,9 @@
       <c r="E432" t="s">
         <v>1458</v>
       </c>
+      <c r="F432" t="s">
+        <v>1543</v>
+      </c>
       <c r="G432" t="s">
         <v>1615</v>
       </c>
@@ -65073,6 +65091,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BB450" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorgft1135575-my.sharepoint.com/personal/angus_chu_epiphroncapital_com/Documents/文件/GitHub/HKEX-IPO-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E6B42C-30DE-4B73-945F-A0556EB16202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C2E6B42C-30DE-4B73-945F-A0556EB16202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DB29B30-AFF3-4B36-895E-23F5C1FEFCC2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58962,7 +58962,7 @@
         <v>-0.3079852779060942</v>
       </c>
       <c r="AZ386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:54" x14ac:dyDescent="0.15">

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angus\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A01AB3-1E31-4A6F-A792-9F6F0E180453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8BA91F-E6B5-4F50-A390-6E9828B07459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5105" uniqueCount="2719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5107" uniqueCount="2719">
   <si>
     <t>Name</t>
   </si>
@@ -8588,9 +8588,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BC492"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H489" sqref="H489"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -74564,6 +74562,12 @@
       </c>
       <c r="E490" t="s">
         <v>1856</v>
+      </c>
+      <c r="G490" t="s">
+        <v>2125</v>
+      </c>
+      <c r="H490" t="s">
+        <v>2201</v>
       </c>
       <c r="J490" t="s">
         <v>1856</v>
